--- a/experiments/Parker/SQL Experiments/GAME Database.xlsx
+++ b/experiments/Parker/SQL Experiments/GAME Database.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parker\Documents\Documents\School\Fall 2019\C S 309\SQL Experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cs309\sr_5_\Experiments\Parker\SQL Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9049180A-27B4-4A74-92E8-075C52D595BA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26BF59C-F493-49F0-8AF0-8747131251FD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9216" yWindow="2112" windowWidth="13824" windowHeight="7176" xr2:uid="{B3459627-CB4F-4E9C-8616-395FEA35040D}"/>
+    <workbookView xWindow="28980" yWindow="5610" windowWidth="17280" windowHeight="8970" activeTab="1" xr2:uid="{B3459627-CB4F-4E9C-8616-395FEA35040D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Players</t>
   </si>
@@ -67,6 +68,21 @@
   </si>
   <si>
     <t>Ashton_N</t>
+  </si>
+  <si>
+    <t>Permanent</t>
+  </si>
+  <si>
+    <t>Temp</t>
+  </si>
+  <si>
+    <t>#id(increment), First, Last, username(Unique) , date joined</t>
+  </si>
+  <si>
+    <t>friend, head to head wins, losses, total</t>
+  </si>
+  <si>
+    <t>#id, times played per game</t>
   </si>
 </sst>
 </file>
@@ -428,7 +444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A88772A1-F8E8-4190-B2AC-18350F2680F0}">
   <dimension ref="B2:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -508,4 +524,47 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5447FF06-E1B8-4E5E-AEF4-60B530BD448F}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="62.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>